--- a/Lab1.3/Lab-1.3-Requirements Source Traceability Matrix.xlsx
+++ b/Lab1.3/Lab-1.3-Requirements Source Traceability Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaba\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FShop\Desktop\SE357-Pratice-class\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519B4F2-28B7-4CFE-819A-493FCD42F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDB32D3-2F70-4A5D-9539-7F8FF9FEF984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,12 +203,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -218,15 +233,15 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{016603DC-DE64-4C70-921D-3C20CE6A4E2B}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -243,7 +258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,18 +556,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8854E2F-0770-4487-8904-2AC368AD1999}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -563,8 +578,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -574,8 +589,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -585,8 +600,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -596,8 +611,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -607,8 +622,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -618,8 +633,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -629,8 +644,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -640,8 +655,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -651,8 +666,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -662,8 +677,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -673,8 +688,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -684,8 +699,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -695,8 +710,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -706,8 +721,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -717,8 +732,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -728,8 +743,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -739,8 +754,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -750,8 +765,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -761,8 +776,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -772,8 +787,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -783,8 +798,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -794,8 +809,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -805,8 +820,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -816,8 +831,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -827,8 +842,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -838,8 +853,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -849,8 +864,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -860,8 +875,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -871,8 +886,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -882,30 +897,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -915,8 +930,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -928,6 +943,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab1.3/Lab-1.3-Requirements Source Traceability Matrix.xlsx
+++ b/Lab1.3/Lab-1.3-Requirements Source Traceability Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FShop\Desktop\SE357-Pratice-class\Lab1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaba\OneDrive\Documents\GitHub\SE357-Pratice-class\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDB32D3-2F70-4A5D-9539-7F8FF9FEF984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D372EB-169A-4967-A2B7-D51C8ECB57B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Đăng nhập</t>
   </si>
@@ -62,15 +62,9 @@
     <t>Quản lí lịch làm việc nhân viên</t>
   </si>
   <si>
-    <t>Theo dõi doanh thu, chi phí</t>
-  </si>
-  <si>
     <t>Lập báo cáo tài chính</t>
   </si>
   <si>
-    <t>Theo dõi hàng hóa vật tư</t>
-  </si>
-  <si>
     <t>Lập phiếu nhập xuất kho</t>
   </si>
   <si>
@@ -83,21 +77,12 @@
     <t>CRUD đơn thuốc</t>
   </si>
   <si>
-    <t>Lưu trữ hồ sơ bệnh án</t>
-  </si>
-  <si>
     <t>In hồ sơ bệnh án</t>
   </si>
   <si>
-    <t>Theo dõi tình trạng thiết bị</t>
-  </si>
-  <si>
     <t>Lập kế hoạch bảo dưỡng thiết bị</t>
   </si>
   <si>
-    <t>CRUD quảng cáo</t>
-  </si>
-  <si>
     <t>CRUD voucher</t>
   </si>
   <si>
@@ -110,19 +95,7 @@
     <t>Theo dõi tiến độ kế hoạch điều trị</t>
   </si>
   <si>
-    <t>CRUD hợp đồng dịch vụ</t>
-  </si>
-  <si>
-    <t>CRUD hợp đồng cung cấp vật tư</t>
-  </si>
-  <si>
     <t>Mã hóa dữ liệu</t>
-  </si>
-  <si>
-    <t>CRUD khách hàng tiềm năng (doanh nghiệp)</t>
-  </si>
-  <si>
-    <t>Xuất hóa đơn ( bệnh nhân)</t>
   </si>
   <si>
     <t>CRUD  thông tin phòng khám</t>
@@ -162,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,12 +146,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -229,19 +196,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{016603DC-DE64-4C70-921D-3C20CE6A4E2B}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -258,7 +224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -554,31 +520,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8854E2F-0770-4487-8904-2AC368AD1999}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:C34"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -586,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -597,21 +563,21 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -619,10 +585,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -630,10 +596,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -641,10 +607,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -652,293 +618,194 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
